--- a/exp/JoinMH_QL_1.1.xlsx
+++ b/exp/JoinMH_QL_1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24855"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8234,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9650,7 +9650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
